--- a/data/raw_data/04-2024_raw_listings.xlsx
+++ b/data/raw_data/04-2024_raw_listings.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +590,9 @@
           <t>-123.14007661525743</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p432510/apartments-at-1188-bidwell-st-vancouver-bc-v6g-0c6</t>
@@ -664,7 +670,9 @@
           <t>-123.14007661525743</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p432510/apartments-at-1188-bidwell-st-vancouver-bc-v6g-0c6</t>
@@ -742,7 +750,9 @@
           <t>-123.14007661525743</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p432510/apartments-at-1188-bidwell-st-vancouver-bc-v6g-0c6</t>
@@ -820,7 +830,9 @@
           <t>-123.14007661525743</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p432510/apartments-at-1188-bidwell-st-vancouver-bc-v6g-0c6</t>
@@ -898,7 +910,9 @@
           <t>-123.10550268075978</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p449020/apartments-at-55-water-st-vancouver-bc-v6b-1a1</t>
@@ -976,7 +990,9 @@
           <t>-123.10550268075978</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p449020/apartments-at-55-water-st-vancouver-bc-v6b-1a1</t>
@@ -1054,7 +1070,9 @@
           <t>-123.15863758314505</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p228884/apartments-at-5815-yew-st-vancouver-bc-v6m-3y6</t>
@@ -1132,7 +1150,9 @@
           <t>-123.15863758314505</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p228884/apartments-at-5815-yew-st-vancouver-bc-v6m-3y6</t>
@@ -1210,7 +1230,9 @@
           <t>-123.1451313664324</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220485/flamingo-apartments-at-2061-beach-ave-vancouver-bc-v6g-1z3</t>
@@ -1288,7 +1310,9 @@
           <t>-123.1451313664324</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220485/flamingo-apartments-at-2061-beach-ave-vancouver-bc-v6g-1z3</t>
@@ -1366,7 +1390,9 @@
           <t>-123.1451313664324</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220485/flamingo-apartments-at-2061-beach-ave-vancouver-bc-v6g-1z3</t>
@@ -1444,7 +1470,9 @@
           <t>-123.12084038021527</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p217942/metropolitan-towers-apartments-at-930-seymour-st-vancouver-bc-v6b-1b4</t>
@@ -1522,7 +1550,9 @@
           <t>-123.12084038021527</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p217942/metropolitan-towers-apartments-at-930-seymour-st-vancouver-bc-v6b-1b4</t>
@@ -1600,7 +1630,9 @@
           <t>-123.12084038021527</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p217942/metropolitan-towers-apartments-at-930-seymour-st-vancouver-bc-v6b-1b4</t>
@@ -1678,7 +1710,9 @@
           <t>-123.12084038021527</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p217942/metropolitan-towers-apartments-at-930-seymour-st-vancouver-bc-v6b-1b4</t>
@@ -1756,7 +1790,9 @@
           <t>-123.12084038021527</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p217942/metropolitan-towers-apartments-at-930-seymour-st-vancouver-bc-v6b-1b4</t>
@@ -1834,7 +1870,9 @@
           <t>-123.12084038021527</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p217942/metropolitan-towers-apartments-at-930-seymour-st-vancouver-bc-v6b-1b4</t>
@@ -1912,7 +1950,9 @@
           <t>-123.05806492776372</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1102762/apartments-at-2550-garden-dr-vancouver-bc-v5n-4x6</t>
@@ -1990,7 +2030,9 @@
           <t>-123.05806492776372</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1102762/apartments-at-2550-garden-dr-vancouver-bc-v5n-4x6</t>
@@ -2068,7 +2110,9 @@
           <t>-123.05806492776372</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1102762/apartments-at-2550-garden-dr-vancouver-bc-v5n-4x6</t>
@@ -2146,7 +2190,9 @@
           <t>-123.05806492776372</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1102762/apartments-at-2550-garden-dr-vancouver-bc-v5n-4x6</t>
@@ -2224,7 +2270,9 @@
           <t>-123.05806492776372</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1102762/apartments-at-2550-garden-dr-vancouver-bc-v5n-4x6</t>
@@ -2302,7 +2350,9 @@
           <t>-123.05806492776372</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1102762/apartments-at-2550-garden-dr-vancouver-bc-v5n-4x6</t>
@@ -2380,7 +2430,9 @@
           <t>-123.14095738392858</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p528695/apartments-at-2035-barclay-st-vancouver-bc-v6g-1l6</t>
@@ -2458,7 +2510,9 @@
           <t>-123.14095738392858</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p528695/apartments-at-2035-barclay-st-vancouver-bc-v6g-1l6</t>
@@ -2536,7 +2590,9 @@
           <t>-123.13559094573333</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p225101/santana-apartments-at-1251-jervis-st-vancouver-bc-v6e-2e1</t>
@@ -2614,7 +2670,9 @@
           <t>-123.13559094573333</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p225101/santana-apartments-at-1251-jervis-st-vancouver-bc-v6e-2e1</t>
@@ -2692,7 +2750,9 @@
           <t>-123.13400473849532</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220490/skyline-apartments-at-1305-12th-ave-w-vancouver-bc-v6h-1m3</t>
@@ -2770,7 +2830,9 @@
           <t>-123.13400473849532</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220490/skyline-apartments-at-1305-12th-ave-w-vancouver-bc-v6h-1m3</t>
@@ -2848,7 +2910,9 @@
           <t>-123.13400473849532</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220490/skyline-apartments-at-1305-12th-ave-w-vancouver-bc-v6h-1m3</t>
@@ -2926,7 +2990,9 @@
           <t>-123.13400473849532</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220490/skyline-apartments-at-1305-12th-ave-w-vancouver-bc-v6h-1m3</t>
@@ -3004,7 +3070,9 @@
           <t>-123.13217801598101</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p221590/apartments-at-1501-haro-st-vancouver-bc-v6g-1g4</t>
@@ -3082,7 +3150,9 @@
           <t>-123.13217801598101</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p221590/apartments-at-1501-haro-st-vancouver-bc-v6g-1g4</t>
@@ -3160,7 +3230,9 @@
           <t>-123.10252284437681</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p377600/the-bovill-apartments-at-188-49th-ave-e-vancouver-bc-v5w-0e6</t>
@@ -3238,7 +3310,9 @@
           <t>-123.10252284437681</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p377600/the-bovill-apartments-at-188-49th-ave-e-vancouver-bc-v5w-0e6</t>
@@ -3316,7 +3390,9 @@
           <t>-123.10252284437681</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p377600/the-bovill-apartments-at-188-49th-ave-e-vancouver-bc-v5w-0e6</t>
@@ -3394,7 +3470,9 @@
           <t>-123.1318938661225</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p221691/apartments-at-1005-jervis-st-vancouver-bc-v6e-3t1</t>
@@ -3472,7 +3550,9 @@
           <t>-123.1318938661225</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p221691/apartments-at-1005-jervis-st-vancouver-bc-v6e-3t1</t>
@@ -3550,7 +3630,9 @@
           <t>-123.12957071517229</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p780822/burrard-place-rental-apartments-at-1289-hornby-st-vancouver-bc-v6z-0g7</t>
@@ -3628,7 +3710,9 @@
           <t>-123.12957071517229</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p780822/burrard-place-rental-apartments-at-1289-hornby-st-vancouver-bc-v6z-0g7</t>
@@ -3706,7 +3790,9 @@
           <t>-123.13963124269634</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220470/zephyr-apartments-at-1661-davie-st-vancouver-bc-v6g-1w1</t>
@@ -3784,7 +3870,9 @@
           <t>-123.13963124269634</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220470/zephyr-apartments-at-1661-davie-st-vancouver-bc-v6g-1w1</t>
@@ -3862,7 +3950,9 @@
           <t>-123.13963124269634</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220470/zephyr-apartments-at-1661-davie-st-vancouver-bc-v6g-1w1</t>
@@ -3940,7 +4030,9 @@
           <t>-123.14047012854597</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p431969/apartments-at-1770-pendrell-st-vancouver-bc-v6g-0c5</t>
@@ -4018,7 +4110,9 @@
           <t>-123.14047012854597</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p431969/apartments-at-1770-pendrell-st-vancouver-bc-v6g-0c5</t>
@@ -4096,7 +4190,9 @@
           <t>-123.14047012854597</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p431969/apartments-at-1770-pendrell-st-vancouver-bc-v6g-0c5</t>
@@ -4174,7 +4270,9 @@
           <t>-123.14047012854597</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p431969/apartments-at-1770-pendrell-st-vancouver-bc-v6g-0c5</t>
@@ -4252,7 +4350,9 @@
           <t>-123.13930776333687</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220475/royal-villa-apartments-at-8675-french-st-vancouver-bc-v6p-4w5</t>
@@ -4330,7 +4430,9 @@
           <t>-123.13930776333687</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
+      <c r="O50" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p220475/royal-villa-apartments-at-8675-french-st-vancouver-bc-v6p-4w5</t>
@@ -4408,7 +4510,9 @@
           <t>-123.13310496855718</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p221376/apartments-at-1580-haro-st-vancouver-bc-v6g-1g6</t>
@@ -4486,7 +4590,9 @@
           <t>-123.13310496855718</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p221376/apartments-at-1580-haro-st-vancouver-bc-v6g-1g6</t>
@@ -4564,7 +4670,9 @@
           <t>-123.13458682805098</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p558967/west-bay-court-apartments-at-1111-pacific-st-vancouver-bc-v6e-3x7</t>
@@ -4642,7 +4750,9 @@
           <t>-123.13458682805098</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p558967/west-bay-court-apartments-at-1111-pacific-st-vancouver-bc-v6e-3x7</t>
@@ -4720,7 +4830,9 @@
           <t>-123.13458682805098</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p558967/west-bay-court-apartments-at-1111-pacific-st-vancouver-bc-v6e-3x7</t>
@@ -4798,7 +4910,9 @@
           <t>-123.13458682805098</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p558967/west-bay-court-apartments-at-1111-pacific-st-vancouver-bc-v6e-3x7</t>
@@ -4876,7 +4990,9 @@
           <t>-123.13458682805098</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p558967/west-bay-court-apartments-at-1111-pacific-st-vancouver-bc-v6e-3x7</t>
@@ -4954,7 +5070,9 @@
           <t>-123.14851763800029</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p561030/apartments-at-1918-york-ave-vancouver-bc-v6j-1e3</t>
@@ -5032,7 +5150,9 @@
           <t>-123.14851763800029</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p561030/apartments-at-1918-york-ave-vancouver-bc-v6j-1e3</t>
@@ -5110,7 +5230,9 @@
           <t>-123.13065696899176</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p436541/apartments-at-935-jervis-st-vancouver-bc-v6e-2b5</t>
@@ -5188,7 +5310,9 @@
           <t>-123.13065696899176</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p436541/apartments-at-935-jervis-st-vancouver-bc-v6e-2b5</t>
@@ -5266,7 +5390,9 @@
           <t>-123.13065696899176</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p436541/apartments-at-935-jervis-st-vancouver-bc-v6e-2b5</t>
@@ -5344,7 +5470,9 @@
           <t>-123.13065696899176</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p436541/apartments-at-935-jervis-st-vancouver-bc-v6e-2b5</t>
@@ -5422,7 +5550,9 @@
           <t>-123.1414022788014</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p790092/muro-apartments-at-1770-davie-st-vancouver-bc-v6g-1w4</t>
@@ -5500,7 +5630,9 @@
           <t>-123.1414022788014</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p790092/muro-apartments-at-1770-davie-st-vancouver-bc-v6g-1w4</t>
@@ -5578,7 +5710,9 @@
           <t>-123.1414022788014</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p790092/muro-apartments-at-1770-davie-st-vancouver-bc-v6g-1w4</t>
@@ -5656,7 +5790,9 @@
           <t>-123.13160710279267</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p555371/eterno-1168-pendrell-apartments-at-1168-pendrell-st-vancouver-bc-v6e-1l4</t>
@@ -5734,7 +5870,9 @@
           <t>-123.13160710279267</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p555371/eterno-1168-pendrell-apartments-at-1168-pendrell-st-vancouver-bc-v6e-1l4</t>
@@ -5812,7 +5950,9 @@
           <t>-123.13160710279267</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p555371/eterno-1168-pendrell-apartments-at-1168-pendrell-st-vancouver-bc-v6e-1l4</t>
@@ -5890,7 +6030,9 @@
           <t>-123.13160710279267</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p555371/eterno-1168-pendrell-apartments-at-1168-pendrell-st-vancouver-bc-v6e-1l4</t>
@@ -5968,7 +6110,9 @@
           <t>-123.13160710279267</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p555371/eterno-1168-pendrell-apartments-at-1168-pendrell-st-vancouver-bc-v6e-1l4</t>
@@ -6046,7 +6190,9 @@
           <t>-123.13165353721934</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p615374/chronicle-apartments-at-825-nicola-st-vancouver-bc-v6g-2c4</t>
@@ -6124,7 +6270,9 @@
           <t>-123.13165353721934</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p615374/chronicle-apartments-at-825-nicola-st-vancouver-bc-v6g-2c4</t>
@@ -6202,7 +6350,9 @@
           <t>-123.13165353721934</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p615374/chronicle-apartments-at-825-nicola-st-vancouver-bc-v6g-2c4</t>
@@ -6280,7 +6430,9 @@
           <t>-123.13165353721934</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p615374/chronicle-apartments-at-825-nicola-st-vancouver-bc-v6g-2c4</t>
@@ -6358,7 +6510,9 @@
           <t>-123.1301871193155</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr"/>
+      <c r="O76" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p633202/apartments-at-8616-oak-st-vancouver-bc-v6p-4b3</t>
@@ -6436,7 +6590,9 @@
           <t>-123.1301871193155</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p633202/apartments-at-8616-oak-st-vancouver-bc-v6p-4b3</t>
@@ -6514,7 +6670,9 @@
           <t>-123.0340917</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1013394/keel-apartments-at-8690-jack-uppal-st-vancouver-bc-v5s-0k1</t>
@@ -6592,7 +6750,9 @@
           <t>-123.0340917</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p1013394/keel-apartments-at-8690-jack-uppal-st-vancouver-bc-v5s-0k1</t>
@@ -6670,7 +6830,9 @@
           <t>-123.145105601</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p510456/viridian-apartments-at-1783-14th-ave-w-vancouver-bc-v6j-2j7</t>
@@ -6748,7 +6910,9 @@
           <t>-123.145105601</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p510456/viridian-apartments-at-1783-14th-ave-w-vancouver-bc-v6j-2j7</t>
@@ -6826,7 +6990,9 @@
           <t>-123.13648301385862</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p263578/barafield-apartments-at-1260-harwood-st-vancouver-bc-v6e-1s4</t>
@@ -6904,7 +7070,9 @@
           <t>-123.13648301385862</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p263578/barafield-apartments-at-1260-harwood-st-vancouver-bc-v6e-1s4</t>
@@ -6982,7 +7150,9 @@
           <t>-123.13648301385862</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p263578/barafield-apartments-at-1260-harwood-st-vancouver-bc-v6e-1s4</t>
@@ -7060,7 +7230,9 @@
           <t>-123.13648301385862</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p263578/barafield-apartments-at-1260-harwood-st-vancouver-bc-v6e-1s4</t>
@@ -7138,7 +7310,9 @@
           <t>-123.13648301385862</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p263578/barafield-apartments-at-1260-harwood-st-vancouver-bc-v6e-1s4</t>
@@ -7216,7 +7390,9 @@
           <t>-123.13648301385862</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p263578/barafield-apartments-at-1260-harwood-st-vancouver-bc-v6e-1s4</t>
@@ -7294,7 +7470,9 @@
           <t>-123.13648301385862</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p263578/barafield-apartments-at-1260-harwood-st-vancouver-bc-v6e-1s4</t>
@@ -7372,7 +7550,9 @@
           <t>-123.1007584</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p427023/bluesky-chinatown-apartments-at-183-georgia-st-e-vancouver-bc-v6a-0e5</t>
@@ -7450,7 +7630,9 @@
           <t>-123.1007584</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p427023/bluesky-chinatown-apartments-at-183-georgia-st-e-vancouver-bc-v6a-0e5</t>
@@ -7528,7 +7710,9 @@
           <t>-123.1007584</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p427023/bluesky-chinatown-apartments-at-183-georgia-st-e-vancouver-bc-v6a-0e5</t>
@@ -7606,7 +7790,9 @@
           <t>-123.1007584</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr"/>
+      <c r="O92" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p427023/bluesky-chinatown-apartments-at-183-georgia-st-e-vancouver-bc-v6a-0e5</t>
@@ -7684,7 +7870,9 @@
           <t>-123.1007584</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P93" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p427023/bluesky-chinatown-apartments-at-183-georgia-st-e-vancouver-bc-v6a-0e5</t>
@@ -7762,7 +7950,9 @@
           <t>-123.1007584</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p427023/bluesky-chinatown-apartments-at-183-georgia-st-e-vancouver-bc-v6a-0e5</t>
@@ -7840,7 +8030,9 @@
           <t>-123.1281339601219</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p469624/pacific-palisades-apartments-at-788-jervis-st-vancouver-bc-v6e-0b5</t>
@@ -7918,7 +8110,9 @@
           <t>-123.1281339601219</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p469624/pacific-palisades-apartments-at-788-jervis-st-vancouver-bc-v6e-0b5</t>
@@ -7996,7 +8190,9 @@
           <t>-123.1281339601219</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P97" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p469624/pacific-palisades-apartments-at-788-jervis-st-vancouver-bc-v6e-0b5</t>
@@ -8074,7 +8270,9 @@
           <t>-123.1281339601219</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p469624/pacific-palisades-apartments-at-788-jervis-st-vancouver-bc-v6e-0b5</t>
@@ -8152,7 +8350,9 @@
           <t>-123.1281339601219</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr"/>
+      <c r="O99" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p469624/pacific-palisades-apartments-at-788-jervis-st-vancouver-bc-v6e-0b5</t>
@@ -8230,7 +8430,9 @@
           <t>-123.1290959286057</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr"/>
+      <c r="O100" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p213237/bayview-at-coal-harbour-apartments-at-1529-pender-st-w-vancouver-bc-v6g-3j3</t>
@@ -8308,7 +8510,9 @@
           <t>-123.1290959286057</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p213237/bayview-at-coal-harbour-apartments-at-1529-pender-st-w-vancouver-bc-v6g-3j3</t>
@@ -8386,7 +8590,9 @@
           <t>-123.1290959286057</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr"/>
+      <c r="O102" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p213237/bayview-at-coal-harbour-apartments-at-1529-pender-st-w-vancouver-bc-v6g-3j3</t>
@@ -8464,10 +8670,8756 @@
           <t>-123.1290959286057</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
       <c r="P103" t="inlineStr">
         <is>
           <t>https://www.padmapper.com/buildings/p213237/bayview-at-coal-harbour-apartments-at-1529-pender-st-w-vancouver-bc-v6g-3j3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Chancellor Court</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>University Endowment Lands Apartments</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2233 Allison Rd, Vancouver, BC V6T 1T7</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1 Bedroom - Ross House</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>710 SQFT</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Outdoor Space, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>$2,800</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>49.2655836709858</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>-123.24147537713154</t>
+        </is>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p469623/chancellor-court-apartments-at-2233-allison-rd-vancouver-bc-v6t-1t7</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Chancellor Court</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>University Endowment Lands Apartments</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2233 Allison Rd, Vancouver, BC V6T 1T7</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2 Bedroom - garden view</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>910 SQFT</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Outdoor Space, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>$3,500</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>49.2655836709858</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>-123.24147537713154</t>
+        </is>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p469623/chancellor-court-apartments-at-2233-allison-rd-vancouver-bc-v6t-1t7</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Chancellor Court</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>University Endowment Lands Apartments</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2233 Allison Rd, Vancouver, BC V6T 1T7</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Two bedroom - Ross House</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>970 SQFT</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Outdoor Space, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>$3,850</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>49.2655836709858</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>-123.24147537713154</t>
+        </is>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p469623/chancellor-court-apartments-at-2233-allison-rd-vancouver-bc-v6t-1t7</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Forte</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1755 14th Ave W, Vancouver, BC V6J 2J6</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Upgraded Studio</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>503 SQFT</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Controlled Access, Fitness Center, Garage Parking</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>$2,650</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>49.25905765358957</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>-123.14383626053521</t>
+        </is>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p213592/forte-apartments-at-1755-14th-ave-w-vancouver-bc-v6j-2j6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Forte</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1755 14th Ave W, Vancouver, BC V6J 2J6</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Upgraded One Bedroom</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>618 SQFT</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Controlled Access, Fitness Center, Garage Parking</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>$2,850</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>49.25905765358957</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>-123.14383626053521</t>
+        </is>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p213592/forte-apartments-at-1755-14th-ave-w-vancouver-bc-v6j-2j6</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Forte</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1755 14th Ave W, Vancouver, BC V6J 2J6</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>One Bedroom</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>618 SQFT</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Controlled Access, Fitness Center, Garage Parking</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>$2,995—$3,050</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>49.25905765358957</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>-123.14383626053521</t>
+        </is>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p213592/forte-apartments-at-1755-14th-ave-w-vancouver-bc-v6j-2j6</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richards </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>510 Richards St, Vancouver, BC V6B None</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>A2- Studio 1 Bath</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>420 SQFT</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>$2,400</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>49.28307300335392</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>-123.11327894941839</t>
+        </is>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1013244/richards-pender-apartments-at-510-richards-st-vancouver-bc-v6b-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richards </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>510 Richards St, Vancouver, BC V6B None</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>A3- Studio 1 Bath</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>400 SQFT</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>$2,500</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>49.28307300335392</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>-123.11327894941839</t>
+        </is>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1013244/richards-pender-apartments-at-510-richards-st-vancouver-bc-v6b-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richards </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>510 Richards St, Vancouver, BC V6B None</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>D- 2BD 2BTH Flex</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>750 SQFT</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>$3,760</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>49.28307300335392</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>-123.11327894941839</t>
+        </is>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1013244/richards-pender-apartments-at-510-richards-st-vancouver-bc-v6b-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richards </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>510 Richards St, Vancouver, BC V6B None</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>C- 2BD 2BTH</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>810 SQFT</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>$4,250</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>49.28307300335392</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>-123.11327894941839</t>
+        </is>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1013244/richards-pender-apartments-at-510-richards-st-vancouver-bc-v6b-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1200 Hornby Street</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1200 Hornby St, Vancouver, BC V6Z 1W2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2 Bedroom</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>788 SQFT</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>$4,004—$4,033</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>49.27831269154199</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>-123.12814472776701</t>
+        </is>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p513898/apartments-at-1200-hornby-st-vancouver-bc-v6z-1w2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1200 Hornby Street</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1200 Hornby St, Vancouver, BC V6Z 1W2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2 Bedroom Large</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1,453 SQFT</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>$6,705</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>49.27831269154199</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>-123.12814472776701</t>
+        </is>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p513898/apartments-at-1200-hornby-st-vancouver-bc-v6z-1w2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1200 Hornby Street</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1200 Hornby St, Vancouver, BC V6Z 1W2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2 Bedroom Large</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>1,514 SQFT</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>$6,875</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>49.27831269154199</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>-123.12814472776701</t>
+        </is>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p513898/apartments-at-1200-hornby-st-vancouver-bc-v6z-1w2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>English Bay Residences</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1668 Davie St, Vancouver, BC V6G 1V9</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>One-Bedroom (3)</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>497 SQFT</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>$2,600</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>49.28586868945143</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>-123.13978361303074</t>
+        </is>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p358944/english-bay-residences-apartments-at-1668-davie-st-vancouver-bc-v6g-1v9</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>English Bay Residences</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1668 Davie St, Vancouver, BC V6G 1V9</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>One-Bedroom (1)</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>497 SQFT</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>$2,650</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>49.28586868945143</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>-123.13978361303074</t>
+        </is>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p358944/english-bay-residences-apartments-at-1668-davie-st-vancouver-bc-v6g-1v9</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>English Bay Residences</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1668 Davie St, Vancouver, BC V6G 1V9</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>One-Bedroom (2)</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>567 SQFT</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>$2,875</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>49.28586868945143</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>-123.13978361303074</t>
+        </is>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p358944/english-bay-residences-apartments-at-1668-davie-st-vancouver-bc-v6g-1v9</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>English Bay Residences</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1668 Davie St, Vancouver, BC V6G 1V9</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>One-Bedroom (4)</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>567 SQFT</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>$2,900</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>49.28586868945143</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>-123.13978361303074</t>
+        </is>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p358944/english-bay-residences-apartments-at-1668-davie-st-vancouver-bc-v6g-1v9</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>English Bay Residences</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1668 Davie St, Vancouver, BC V6G 1V9</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Two-Bedroom (1)</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>779 SQFT</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>$3,650</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>49.28586868945143</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>-123.13978361303074</t>
+        </is>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p358944/english-bay-residences-apartments-at-1668-davie-st-vancouver-bc-v6g-1v9</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>English Bay Residences</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1668 Davie St, Vancouver, BC V6G 1V9</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Two-Bedroom (2)</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>772 SQFT</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>$3,895</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>49.28586868945143</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>-123.13978361303074</t>
+        </is>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p358944/english-bay-residences-apartments-at-1668-davie-st-vancouver-bc-v6g-1v9</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1320 Bute Street</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1320 Bute St, Vancouver, BC V6E 2A3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>464 SQFT</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Assigned Parking, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Onsite Management, Storage</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>$2,381—$2,486</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>49.28057269507948</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>-123.13507477918411</t>
+        </is>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p872529/apartments-at-1320-bute-st-vancouver-bc-v6e-2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1320 Bute Street</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1320 Bute St, Vancouver, BC V6E 2A3</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>506 SQFT</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Assigned Parking, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Onsite Management, Storage</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>$2,744</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>49.28057269507948</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>-123.13507477918411</t>
+        </is>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p872529/apartments-at-1320-bute-st-vancouver-bc-v6e-2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1348 Barclay Street</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1348 Barclay St, Vancouver, BC V6E 1H7</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>445 SQFT</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Dishwasher, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>$2,476—$2,696</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>49.28624123486091</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>-123.13176092809545</t>
+        </is>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p602868/apartments-at-1348-barclay-st-vancouver-bc-v6e-1h7</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1348 Barclay Street</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1348 Barclay St, Vancouver, BC V6E 1H7</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>580 SQFT</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Dishwasher, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>$2,837—$2,989</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>49.28624123486091</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>-123.13176092809545</t>
+        </is>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p602868/apartments-at-1348-barclay-st-vancouver-bc-v6e-1h7</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1348 Barclay Street</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1348 Barclay St, Vancouver, BC V6E 1H7</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2 Bedroom</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>774 SQFT</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Dishwasher, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>$3,363</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>49.28624123486091</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>-123.13176092809545</t>
+        </is>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p602868/apartments-at-1348-barclay-st-vancouver-bc-v6e-1h7</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>945 Jervis Street</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>945 Jervis St, Vancouver, BC V6E 2B8</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>439 SQFT</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>$2,253—$2,440</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>49.28533782866158</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>-123.13119359080264</t>
+        </is>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p604297/apartments-at-945-jervis-st-vancouver-bc-v6e-2b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>945 Jervis Street</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>945 Jervis St, Vancouver, BC V6E 2B8</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>617 SQFT</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>$2,674—$2,982</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>49.28533782866158</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>-123.13119359080264</t>
+        </is>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p604297/apartments-at-945-jervis-st-vancouver-bc-v6e-2b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1360 Hornby Street</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1360 Hornby St, Vancouver, BC V6Z 1W5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>493 SQFT</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Elevator, On Site Laundry, Onsite Management</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>$2,249</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>49.276751812286676</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>-123.13052582449419</t>
+        </is>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p646416/apartments-at-1360-hornby-st-vancouver-bc-v6z-1w5</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1360 Hornby Street</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1360 Hornby St, Vancouver, BC V6Z 1W5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>551 SQFT</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Elevator, On Site Laundry, Onsite Management</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>$2,625—$2,763</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>49.276751812286676</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>-123.13052582449419</t>
+        </is>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p646416/apartments-at-1360-hornby-st-vancouver-bc-v6z-1w5</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hub Place</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Grandview</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1649 Broadway E, Vancouver, BC V5N 0J4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1 Bdrm available at 1649 E Broadway, Vancouver</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>512 SQFT</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>$2,560</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>49.26240295254206</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>-123.07117504544333</t>
+        </is>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p808292/hub-place-apartments-at-1649-broadway-e-vancouver-bc-v5n-0j4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hub Place</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Grandview</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1649 Broadway E, Vancouver, BC V5N 0J4</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2 Bdrm available at 1649 E Broadway, Vancouver</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>682 SQFT</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>$3,395</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>49.26240295254206</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>-123.07117504544333</t>
+        </is>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p808292/hub-place-apartments-at-1649-broadway-e-vancouver-bc-v5n-0j4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Beach Towers</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1600L Beach Ave, Vancouver, BC V6G 1Y6</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1 Bedroom Pet Friendly</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>414 SQFT</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Carpet, Central Heat, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>$2,395</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>49.283118211987606</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>-123.14197096580907</t>
+        </is>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p329044/beach-towers-apartments-at-1600l-beach-ave-vancouver-bc-v6g-1y6</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Beach Towers</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1600L Beach Ave, Vancouver, BC V6G 1Y6</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>450 SQFT</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Carpet, Central Heat, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>$2,400</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>49.283118211987606</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>-123.14197096580907</t>
+        </is>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p329044/beach-towers-apartments-at-1600l-beach-ave-vancouver-bc-v6g-1y6</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Beach Towers</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1600L Beach Ave, Vancouver, BC V6G 1Y6</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Large 1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>553 SQFT</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Carpet, Central Heat, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>$2,595</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>49.283118211987606</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>-123.14197096580907</t>
+        </is>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p329044/beach-towers-apartments-at-1600l-beach-ave-vancouver-bc-v6g-1y6</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Beach Towers</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1600L Beach Ave, Vancouver, BC V6G 1Y6</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2 Bedroom Pet Friendly</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>817 SQFT</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Carpet, Central Heat, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>$3,700</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>49.283118211987606</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>-123.14197096580907</t>
+        </is>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p329044/beach-towers-apartments-at-1600l-beach-ave-vancouver-bc-v6g-1y6</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Beach Towers</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1600L Beach Ave, Vancouver, BC V6G 1Y6</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2 Bedroom</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>862 SQFT</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Carpet, Central Heat, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>$3,800</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>49.283118211987606</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>-123.14197096580907</t>
+        </is>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p329044/beach-towers-apartments-at-1600l-beach-ave-vancouver-bc-v6g-1y6</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Laurel</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Marpole Apartments</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>8605 Laurel St, Vancouver, BC V6P 0K4</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>321- 1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>$2,175</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>49.20836733449659</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>-123.1262451669594</t>
+        </is>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p871855/laurel-apartments-at-8605-laurel-st-vancouver-bc-v6p-0k4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Laurel</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Marpole Apartments</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>8605 Laurel St, Vancouver, BC V6P 0K4</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>450 SQFT</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>$2,250</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>49.20836733449659</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>-123.1262451669594</t>
+        </is>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p871855/laurel-apartments-at-8605-laurel-st-vancouver-bc-v6p-0k4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Laurel</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Marpole Apartments</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>8605 Laurel St, Vancouver, BC V6P 0K4</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>623-1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>450 SQFT</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>$2,300</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>49.20836733449659</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>-123.1262451669594</t>
+        </is>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p871855/laurel-apartments-at-8605-laurel-st-vancouver-bc-v6p-0k4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Laurel</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Marpole Apartments</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>8605 Laurel St, Vancouver, BC V6P 0K4</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2 Bedroom</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>$3,175</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>49.20836733449659</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>-123.1262451669594</t>
+        </is>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p871855/laurel-apartments-at-8605-laurel-st-vancouver-bc-v6p-0k4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Pendrell</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1108 Pendrell St, Vancouver, BC V6E 0C7</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>448 SQFT</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Central Heat, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>$2,550</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>49.28118520360253</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>-123.13040211597814</t>
+        </is>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p428567/pendrell-apartments-at-1108-pendrell-st-vancouver-bc-v6e-0c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Pendrell</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1108 Pendrell St, Vancouver, BC V6E 0C7</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>415 SQFT</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Central Heat, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>$2,595</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>49.28118520360253</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>-123.13040211597814</t>
+        </is>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p428567/pendrell-apartments-at-1108-pendrell-st-vancouver-bc-v6e-0c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Pendrell</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1108 Pendrell St, Vancouver, BC V6E 0C7</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>PH1</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1,074 SQFT</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Central Heat, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>$4,850</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>49.28118520360253</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>-123.13040211597814</t>
+        </is>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p428567/pendrell-apartments-at-1108-pendrell-st-vancouver-bc-v6e-0c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Pendrell</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1108 Pendrell St, Vancouver, BC V6E 0C7</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>PH9</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>3 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1,228 SQFT</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Central Heat, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>$5,350</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>49.28118520360253</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>-123.13040211597814</t>
+        </is>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p428567/pendrell-apartments-at-1108-pendrell-st-vancouver-bc-v6e-0c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Casa Bella</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>840 Broughton St, Vancouver, BC V6G 2A1</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>586 SQFT</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Elevator</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>$2,395—$2,625</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>49.28747273573973</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>-123.13047526955268</t>
+        </is>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p220481/casa-bella-apartments-at-840-broughton-st-vancouver-bc-v6g-2a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Casa Bella</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>840 Broughton St, Vancouver, BC V6G 2A1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2 Bedroom</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>862 SQFT</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Elevator</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>$3,195</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>49.28747273573973</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>-123.13047526955268</t>
+        </is>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p220481/casa-bella-apartments-at-840-broughton-st-vancouver-bc-v6g-2a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Pine Manor</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1745 12th Ave W, Vancouver, BC V6J 2E5</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1 Bedroom | 1 Bathroom</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>637 SQFT</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Balcony, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>On Site Laundry</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>$2,100</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>49.26094467754828</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>-123.1447815457927</t>
+        </is>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p216876/pine-manor-apartments-at-1745-12th-ave-w-vancouver-bc-v6j-2e5</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Pine Manor</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1745 12th Ave W, Vancouver, BC V6J 2E5</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2 Bedroom 2 Bathroom</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>861 SQFT</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Balcony, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>On Site Laundry</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>$3,200</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>49.26094467754828</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>-123.1447815457927</t>
+        </is>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p216876/pine-manor-apartments-at-1745-12th-ave-w-vancouver-bc-v6j-2e5</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Brixton Flats</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Strathcona Apartments</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>303 Pender St E, Vancouver, BC V6A 0J3</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>498 SQFT</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Furnished, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>$2,550</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>49.28040748606046</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>-123.09706897343534</t>
+        </is>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p498070/brixton-flats-apartments-at-303-pender-st-e-vancouver-bc-v6a-0j3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Brixton Flats</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Strathcona Apartments</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>303 Pender St E, Vancouver, BC V6A 0J3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>One Bedroom Modern and Spacious</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>486 SQFT</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Furnished, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>$2,250</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>49.28040748606046</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>-123.09706897343534</t>
+        </is>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p498070/brixton-flats-apartments-at-303-pender-st-e-vancouver-bc-v6a-0j3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Brixton Flats</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Strathcona Apartments</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>303 Pender St E, Vancouver, BC V6A 0J3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2 Bed, 2 Bath Beauty</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>986 SQFT</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Furnished, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>$3,650</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>49.28040748606046</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>-123.09706897343534</t>
+        </is>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p498070/brixton-flats-apartments-at-303-pender-st-e-vancouver-bc-v6a-0j3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>The Dalip</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Kensington</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5656 Victoria Dr, Vancouver, BC V5P 3W4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>357 SQFT</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Fitness Center, Garage Parking, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>49.233326901901776</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>-123.0654078690596</t>
+        </is>
+      </c>
+      <c r="O154" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p443202/the-dalip-apartments-at-5656-victoria-dr-vancouver-bc-v5p-3w4</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>The Dalip</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Kensington</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5656 Victoria Dr, Vancouver, BC V5P 3W4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1c</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>588 SQFT</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Fitness Center, Garage Parking, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>$2,375</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>49.233326901901776</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>-123.0654078690596</t>
+        </is>
+      </c>
+      <c r="O155" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p443202/the-dalip-apartments-at-5656-victoria-dr-vancouver-bc-v5p-3w4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>3583 Kingsway</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Renfrew</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>3583 Kingsway, Vancouver, BC V5R 5L9</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>3583 Kingsway - Plan A</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>475 SQFT</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>$2,299</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>49.23227436507534</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>-123.02687572278141</t>
+        </is>
+      </c>
+      <c r="O156" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p604641/apartments-at-3583-kingsway-vancouver-bc-v5r-5l9</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>3583 Kingsway</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Renfrew</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3583 Kingsway, Vancouver, BC V5R 5L9</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>3583 Kingsway - Plan B</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>470 SQFT</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>$2,374</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>49.23227436507534</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>-123.02687572278141</t>
+        </is>
+      </c>
+      <c r="O157" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p604641/apartments-at-3583-kingsway-vancouver-bc-v5r-5l9</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>3583 Kingsway</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Renfrew</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3583 Kingsway, Vancouver, BC V5R 5L9</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>3583 Kingsway - Plan D</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>483 SQFT</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>$2,399</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>49.23227436507534</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>-123.02687572278141</t>
+        </is>
+      </c>
+      <c r="O158" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p604641/apartments-at-3583-kingsway-vancouver-bc-v5r-5l9</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>3583 Kingsway</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Renfrew</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3583 Kingsway, Vancouver, BC V5R 5L9</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>3583 Kingsway - Plan B</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>574 SQFT</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>$2,575</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>49.23227436507534</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>-123.02687572278141</t>
+        </is>
+      </c>
+      <c r="O159" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p604641/apartments-at-3583-kingsway-vancouver-bc-v5r-5l9</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>3583 Kingsway</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Renfrew</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3583 Kingsway, Vancouver, BC V5R 5L9</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>3583 Kingsway - Plan Q</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>680 SQFT</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>$3,199</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>49.23227436507534</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>-123.02687572278141</t>
+        </is>
+      </c>
+      <c r="O160" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p604641/apartments-at-3583-kingsway-vancouver-bc-v5r-5l9</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Heritage Rental Apartment</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1517 Comox St, Vancouver, BC V6G 1P3</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Micro Suite</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>250 SQFT</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Dishwasher, Furnished, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>On Site Laundry, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>$1,700</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>49.286050291520304</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>-123.13551117245315</t>
+        </is>
+      </c>
+      <c r="O161" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1017596/heritage-rental-apartment-at-1517-comox-st-vancouver-bc-v6g-1p3</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Heritage Rental Apartment</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1517 Comox St, Vancouver, BC V6G 1P3</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Micro Suite</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>180 SQFT</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Dishwasher, Furnished, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>On Site Laundry, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>$1,700</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>49.286050291520304</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>-123.13551117245315</t>
+        </is>
+      </c>
+      <c r="O162" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1017596/heritage-rental-apartment-at-1517-comox-st-vancouver-bc-v6g-1p3</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Heritage Rental Apartment</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1517 Comox St, Vancouver, BC V6G 1P3</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>1,114 SQFT</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Dishwasher, Furnished, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>On Site Laundry, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>$3,490</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>49.286050291520304</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>-123.13551117245315</t>
+        </is>
+      </c>
+      <c r="O163" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1017596/heritage-rental-apartment-at-1517-comox-st-vancouver-bc-v6g-1p3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Comma Fraser Apartments</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riley Park </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>695 East 19th Ave, Vancouver, BC V5V None</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1 Bedroom 1 Bathroom</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>621 SQFT</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Assigned Parking</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Garage Parking, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>$2,625</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>49.25378600136313</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>-123.09021779535037</t>
+        </is>
+      </c>
+      <c r="O164" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p993793/comma-fraser-apartments-at-695-east-19th-ave-vancouver-bc-v5v-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Comma Fraser Apartments</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riley Park </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>695 East 19th Ave, Vancouver, BC V5V None</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2 Bedroom 2 Bathroom</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>818 SQFT</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Assigned Parking</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Garage Parking, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>$3,225</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>49.25378600136313</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>-123.09021779535037</t>
+        </is>
+      </c>
+      <c r="O165" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p993793/comma-fraser-apartments-at-695-east-19th-ave-vancouver-bc-v5v-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>The Standard</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1142 Granville St, Vancouver, BC V6Z 0B5</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>320 SQFT</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Central Heat, Dishwasher, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>$2,095</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>49.27769391115594</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>-123.12523592524848</t>
+        </is>
+      </c>
+      <c r="O166" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p426759/the-standard-apartments-at-1142-granville-st-vancouver-bc-v6z-0b5</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>The Standard</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1142 Granville St, Vancouver, BC V6Z 0B5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>320 SQFT</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Central Heat, Dishwasher, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>$2,150</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>49.27769391115594</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>-123.12523592524848</t>
+        </is>
+      </c>
+      <c r="O167" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p426759/the-standard-apartments-at-1142-granville-st-vancouver-bc-v6z-0b5</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>450 SQFT</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>$2,500</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O168" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>One-Bedroom</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>685 SQFT</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>$3,155</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O169" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>One-Bedroom (Unit 531)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>725 SQFT</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>$3,410</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O170" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Two-Bedroom (2)</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>1,000 SQFT</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>$4,035</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O171" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Two-Bedroom (Unit 712)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>980 SQFT</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>$4,045</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O172" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Two-Bedroom (Unit 811)</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>990 SQFT</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>$4,120</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O173" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Two-Bedroom (Unit 703)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>735 SQFT</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>$4,195</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O174" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Three-Bedroom (Unit 709)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>1,090 SQFT</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>$5,995</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O175" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Arbutus Residences</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Quilchena Apartments</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2139 Lahb Ave, Vancouver, BC V6L 0B9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Penthouse</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>3 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2,220 SQFT</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>$10,895</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>49.2486</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>-123.15397</t>
+        </is>
+      </c>
+      <c r="O176" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1117150/arbutus-residences-apartments-at-2139-lahb-ave-vancouver-bc-v6l-0b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Narrows</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Hastings</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3455 Hastings St E, Vancouver, BC V5K 2A5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Studio Apartment</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>$1,731</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>49.28126654334961</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>-123.02962879575674</t>
+        </is>
+      </c>
+      <c r="O177" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1114626/narrows-apartments-at-3455-hastings-st-e-vancouver-bc-v5k-2a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Narrows</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Hastings</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>3455 Hastings St E, Vancouver, BC V5K 2A5</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>3 Bedroom</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>$3,484</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>49.28126654334961</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>-123.02962879575674</t>
+        </is>
+      </c>
+      <c r="O178" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1114626/narrows-apartments-at-3455-hastings-st-e-vancouver-bc-v5k-2a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fontainebleau Apartments</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Kerrisdale Apartments</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5455 Balsam St, Vancouver, BC V6M 4B3</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>One Bedroom</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>879 SQFT</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>$2,950</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>49.23697475192091</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>-123.16136191682513</t>
+        </is>
+      </c>
+      <c r="O179" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p722266/fontainebleau-apartments-at-5455-balsam-st-vancouver-bc-v6m-4b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Fontainebleau Apartments</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Kerrisdale Apartments</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5455 Balsam St, Vancouver, BC V6M 4B3</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Two Bedroom (3)</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>1,066 SQFT</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>$4,050</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>49.23697475192091</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>-123.16136191682513</t>
+        </is>
+      </c>
+      <c r="O180" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p722266/fontainebleau-apartments-at-5455-balsam-st-vancouver-bc-v6m-4b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Fontainebleau Apartments</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Kerrisdale Apartments</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5455 Balsam St, Vancouver, BC V6M 4B3</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Two Bedroom (1)</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>1,095 SQFT</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>$4,075</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>49.23697475192091</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>-123.16136191682513</t>
+        </is>
+      </c>
+      <c r="O181" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p722266/fontainebleau-apartments-at-5455-balsam-st-vancouver-bc-v6m-4b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Fontainebleau Apartments</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Kerrisdale Apartments</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>5455 Balsam St, Vancouver, BC V6M 4B3</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Three Bedroom (1)</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>1,403 SQFT</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>$5,100</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>49.23697475192091</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>-123.16136191682513</t>
+        </is>
+      </c>
+      <c r="O182" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p722266/fontainebleau-apartments-at-5455-balsam-st-vancouver-bc-v6m-4b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Fontainebleau Apartments</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Kerrisdale Apartments</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5455 Balsam St, Vancouver, BC V6M 4B3</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Three Bedroom (2)</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>1,403 SQFT</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Residents Lounge, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>$5,155</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>49.23697475192091</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>-123.16136191682513</t>
+        </is>
+      </c>
+      <c r="O183" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p722266/fontainebleau-apartments-at-5455-balsam-st-vancouver-bc-v6m-4b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>855 Jervis</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>855 Jervis St, Vancouver, BC V6E 2B2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>855 Jervis - Plan A</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>562 SQFT</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Elevator, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>$2,749</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>49.286629370656655</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>-123.12923087782615</t>
+        </is>
+      </c>
+      <c r="O184" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p224226/apartments-at-855-jervis-st-vancouver-bc-v6e-2b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>855 Jervis</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>855 Jervis St, Vancouver, BC V6E 2B2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>855 Jervis - Plan B</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>598 SQFT</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Elevator, On Site Laundry, Storage</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>$2,899</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>49.286629370656655</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>-123.12923087782615</t>
+        </is>
+      </c>
+      <c r="O185" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p224226/apartments-at-855-jervis-st-vancouver-bc-v6e-2b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>825 East 8th Avenue</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>825 825 East 8th Avenue, Vancouver, BC None None</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Vancouver Bachelor</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>491 SQFT</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Hardwood Floor, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Onsite Management, Storage</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>$2,349</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>49.26357</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>-123.13857</t>
+        </is>
+      </c>
+      <c r="O186" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1119115/apartments-at-825-825-east-8th-avenue-vancouver-bc-none-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>825 East 8th Avenue</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>825 825 East 8th Avenue, Vancouver, BC None None</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Vancouver 1 Bedroom</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>557 SQFT</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Hardwood Floor, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Onsite Management, Storage</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>$2,672</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>49.26357</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>-123.13857</t>
+        </is>
+      </c>
+      <c r="O187" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1119115/apartments-at-825-825-east-8th-avenue-vancouver-bc-none-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>825 East 8th Avenue</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Fairview Apartments</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>825 825 East 8th Avenue, Vancouver, BC None None</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Vancouver 1 Bedroom + Den</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>649 SQFT</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Hardwood Floor, On Site Laundry, Oven</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Garage Parking, On Site Laundry, Onsite Management, Storage</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>$2,849</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>49.26357</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>-123.13857</t>
+        </is>
+      </c>
+      <c r="O188" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1119115/apartments-at-825-825-east-8th-avenue-vancouver-bc-none-none</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Starlight Towers</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Kerrisdale Apartments</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>5603 Balsam St, Vancouver, BC V6M 4B6</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>One Bedroom</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>651 SQFT</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>$2,650</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>49.23573906222936</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>-123.1614004534269</t>
+        </is>
+      </c>
+      <c r="O189" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p469622/starlight-towers-apartments-at-5603-balsam-st-vancouver-bc-v6m-4b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Starlight Towers</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Kerrisdale Apartments</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>5603 Balsam St, Vancouver, BC V6M 4B6</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Two Bedroom</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>946 SQFT</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Dishwasher, Hardwood Floor, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Controlled Access, Elevator, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>$3,500</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>49.23573906222936</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>-123.1614004534269</t>
+        </is>
+      </c>
+      <c r="O190" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p469622/starlight-towers-apartments-at-5603-balsam-st-vancouver-bc-v6m-4b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>New York Apartments</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Kitsilano Apartments</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2341 York Ave, Vancouver, BC V6K 1C8</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Micro Unit fit for a student/Bunk bed for extra space/shared bathroom/close to Kitsilano</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>$1,375</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>49.27181127659924</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>-123.15845918896764</t>
+        </is>
+      </c>
+      <c r="O191" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p566050/new-york-apartments-at-2341-york-ave-vancouver-bc-v6k-1c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>New York Apartments</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Kitsilano Apartments</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2341 York Ave, Vancouver, BC V6K 1C8</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SRO - Studio</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>150 SQFT</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>$1,375</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>49.27181127659924</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>-123.15845918896764</t>
+        </is>
+      </c>
+      <c r="O192" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p566050/new-york-apartments-at-2341-york-ave-vancouver-bc-v6k-1c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>New York Apartments</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Kitsilano Apartments</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2341 York Ave, Vancouver, BC V6K 1C8</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Micro Unit fit for a student for extra space/shared bathroom/close to Kitsilano</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>$1,400</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>49.27181127659924</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>-123.15845918896764</t>
+        </is>
+      </c>
+      <c r="O193" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p566050/new-york-apartments-at-2341-york-ave-vancouver-bc-v6k-1c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>New York Apartments</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Kitsilano Apartments</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2341 York Ave, Vancouver, BC V6K 1C8</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Micro Unit fit for a student/Bunk bed for extra space/shared bathroom/close to Kitsilano</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>$1,375</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>49.27181127659924</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>-123.15845918896764</t>
+        </is>
+      </c>
+      <c r="O194" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p566050/new-york-apartments-at-2341-york-ave-vancouver-bc-v6k-1c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Victoria Mews</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1933 41st Ave E, Vancouver, BC V5P 4Y4</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2-Bedroom 1-Bath</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>786 SQFT</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Carpet, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Cats</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>$2,950</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>49.23272502062147</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>-123.06663636542636</t>
+        </is>
+      </c>
+      <c r="O195" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p447788/victoria-mews-apartments-at-1933-41st-ave-e-vancouver-bc-v5p-4y4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Victoria Mews</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1933 41st Ave E, Vancouver, BC V5P 4Y4</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2-Bedroom 1.5-Bath Unit With Den</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>1,227 SQFT</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Carpet, Dishwasher, Hardwood Floor, In Unit Laundry, On Site Laundry</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Cats</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>$3,650</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>49.23272502062147</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>-123.06663636542636</t>
+        </is>
+      </c>
+      <c r="O196" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p447788/victoria-mews-apartments-at-1933-41st-ave-e-vancouver-bc-v5p-4y4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Hendry Place</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Kensington</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3588 Hull Street #34, Vancouver, BC V5N 4R9</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>1,095 SQFT</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Central Heat, Dishwasher, Fireplace, Garden, High Ceilings, In Unit Laundry, Outdoor Space, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, Onsite Management, Outdoor Space, Residents Lounge, Roof Deck, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>$4,595</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>49.2521533</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>-123.0643214</t>
+        </is>
+      </c>
+      <c r="O197" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1006583/hendry-place-apartments-at-3588-hull-street-vancouver-bc-v5n-4r9</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hendry Place</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Kensington</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>3588 Hull Street #34, Vancouver, BC V5N 4R9</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>1,090 SQFT</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Central Heat, Dishwasher, Fireplace, Garden, High Ceilings, In Unit Laundry, Outdoor Space, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, Onsite Management, Outdoor Space, Residents Lounge, Roof Deck, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>$4,795</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>49.2521533</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>-123.0643214</t>
+        </is>
+      </c>
+      <c r="O198" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1006583/hendry-place-apartments-at-3588-hull-street-vancouver-bc-v5n-4r9</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hendry Place</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Kensington</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>3588 Hull Street #34, Vancouver, BC V5N 4R9</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>3 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>1,443 SQFT</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Assigned Parking, Balcony, Central Heat, Dishwasher, Fireplace, Garden, High Ceilings, In Unit Laundry, Outdoor Space, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, Onsite Management, Outdoor Space, Residents Lounge, Roof Deck, Storage, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>$5,495</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>49.2521533</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>-123.0643214</t>
+        </is>
+      </c>
+      <c r="O199" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p1006583/hendry-place-apartments-at-3588-hull-street-vancouver-bc-v5n-4r9</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Level Vancouver Downtown</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Drake St &amp; Howe St, Vancouver, BC V6Z</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Level Suite</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>410 SQFT</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Balcony, Central Heat, Dishwasher, Furnished, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Roof Deck, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>$4,200</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>49.276761</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>-123.1287973</t>
+        </is>
+      </c>
+      <c r="O200" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p548560/level-vancouver-downtown-howe-apartments-at-drake-st-howe-st-vancouver-bc-v6z</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Level Vancouver Downtown</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Drake St &amp; Howe St, Vancouver, BC V6Z</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>One Bedroom Suite</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>425 SQFT</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Balcony, Central Heat, Dishwasher, Furnished, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Roof Deck, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>$4,650</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>49.276761</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>-123.1287973</t>
+        </is>
+      </c>
+      <c r="O201" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p548560/level-vancouver-downtown-howe-apartments-at-drake-st-howe-st-vancouver-bc-v6z</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Level Vancouver Downtown</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Drake St &amp; Howe St, Vancouver, BC V6Z</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Two Bedroom Suite</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>650 SQFT</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Balcony, Central Heat, Dishwasher, Furnished, Hardwood Floor, In Unit Laundry, On Site Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Roof Deck, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>$5,400</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>49.276761</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-123.1287973</t>
+        </is>
+      </c>
+      <c r="O202" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p548560/level-vancouver-downtown-howe-apartments-at-drake-st-howe-st-vancouver-bc-v6z</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Level Vancouver Yaletown</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1022 Seymour Street, Vancouver, BC V6B 0G1</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>One Bedroom Suite</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>600 SQFT</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Fireplace, Fitness Center, Furnished, Hardwood Floor, High Ceilings, In Unit Laundry, On Site Laundry, Outdoor Space, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Door Person, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Package Service, Roof Deck, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>$4,500</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>49.2781691</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>-123.1223778</t>
+        </is>
+      </c>
+      <c r="O203" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p226150/level-vancouver-yaletown-seymour-apartments-at-1022-seymour-street-vancouver-bc-v6b-0g1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Level Vancouver Yaletown</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1022 Seymour Street, Vancouver, BC V6B 0G1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Penthouse</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>4 Full, 2 Half Baths</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>8,425 SQFT</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Assigned Parking, Balcony, Dishwasher, Fireplace, Fitness Center, Furnished, Hardwood Floor, High Ceilings, In Unit Laundry, On Site Laundry, Outdoor Space, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Door Person, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Package Service, Roof Deck, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>$30,000</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>49.2781691</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>-123.1223778</t>
+        </is>
+      </c>
+      <c r="O204" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p226150/level-vancouver-yaletown-seymour-apartments-at-1022-seymour-street-vancouver-bc-v6b-0g1</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Level Hotels </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1388 Richards Street #T, Vancouver, BC V6B 3G6</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>One Bedroom Suite</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>500 SQFT</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Balcony, Central Heat, Dishwasher, Furnished, Hardwood Floor, In Unit Laundry</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Package Service, Roof Deck, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>$4,050</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>49.2740488</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>-123.1267641</t>
+        </is>
+      </c>
+      <c r="O205" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p355095/level-hotels-furnished-suites-apartments-at-1388-richards-street-vancouver-bc-v6b-3g6</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Level Hotels </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1388 Richards Street #T, Vancouver, BC V6B 3G6</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Deluxe One Bedroom Suite</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>600 SQFT</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Balcony, Central Heat, Dishwasher, Furnished, Hardwood Floor, In Unit Laundry</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Package Service, Roof Deck, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>$4,800</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>49.2740488</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>-123.1267641</t>
+        </is>
+      </c>
+      <c r="O206" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p355095/level-hotels-furnished-suites-apartments-at-1388-richards-street-vancouver-bc-v6b-3g6</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Level Hotels </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Downtown Vancouver Apartments</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1388 Richards Street #T, Vancouver, BC V6B 3G6</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Two Bedroom Suite</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>700 SQFT</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Balcony, Central Heat, Dishwasher, Furnished, Hardwood Floor, In Unit Laundry</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Concierge Service, Controlled Access, Dry Cleaning Service, Elevator, Fitness Center, Garage Parking, On Site Laundry, Onsite Management, Outdoor Space, Package Service, Roof Deck, Storage, Swimming Pool</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Dogs &amp; Cats</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>$5,850</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>49.2740488</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>-123.1267641</t>
+        </is>
+      </c>
+      <c r="O207" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p355095/level-hotels-furnished-suites-apartments-at-1388-richards-street-vancouver-bc-v6b-3g6</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1011 Beach Avenue</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1011 Beach Ave, Vancouver, BC V6E 1T8</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1 Bedroom · 1 Bathroom</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>540 SQFT</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Outdoor Space</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>$2,575</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>49.27679157069587</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>-123.13451769989278</t>
+        </is>
+      </c>
+      <c r="O208" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p220524/apartments-at-1011-beach-ave-vancouver-bc-v6e-1t8</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1011 Beach Avenue</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1011 Beach Ave, Vancouver, BC V6E 1T8</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1 Bedroom · 1 Bathroom</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>560 SQFT</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Outdoor Space</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>$2,850</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>49.27679157069587</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>-123.13451769989278</t>
+        </is>
+      </c>
+      <c r="O209" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p220524/apartments-at-1011-beach-ave-vancouver-bc-v6e-1t8</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1011 Beach Avenue</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>West End Apartments</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1011 Beach Ave, Vancouver, BC V6E 1T8</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2 Bedrooms · 1 Bathroom</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>1 Full, 1 Half Bath</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>850 SQFT</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Balcony, Dishwasher, Hardwood Floor, On Site Laundry, Outdoor Space</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Elevator, Garage Parking, On Site Laundry, Onsite Management, Storage, Swimming Pool, Wheelchair Accessible</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>$3,950</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>49.27679157069587</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>-123.13451769989278</t>
+        </is>
+      </c>
+      <c r="O210" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p220524/apartments-at-1011-beach-ave-vancouver-bc-v6e-1t8</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>745 W41 st</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Cambie Apartments</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>745 West 41st Avenue, Vancouver, BC V5Z 2N2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>B2-745</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>90 SQFT</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Garden, Hardwood Floor, In Unit Laundry</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>On Site Laundry, Outdoor Space</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>$1,050</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>49.23407539999999</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>-123.1221005</t>
+        </is>
+      </c>
+      <c r="O211" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p997587/apartments-at-745-west-41st-avenue-vancouver-bc-v5z-2n2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>745 W41 st</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Cambie Apartments</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>745 West 41st Avenue, Vancouver, BC V5Z 2N2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>M4-745</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>80 SQFT</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Garden, Hardwood Floor, In Unit Laundry</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>On Site Laundry, Outdoor Space</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>$1,100</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>49.23407539999999</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>-123.1221005</t>
+        </is>
+      </c>
+      <c r="O212" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p997587/apartments-at-745-west-41st-avenue-vancouver-bc-v5z-2n2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1622 W 37th Ave Vancouver</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Shaughnessy Apartments</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1622 West 37th Avenue, Vancouver, BC V6M 1M7</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>bedroom</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>95 SQFT</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Central Heat, Furnished, Garden, Hardwood Floor, High Ceilings, In Unit Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>On Site Laundry</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>$850</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>49.2377765</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>-123.1428693</t>
+        </is>
+      </c>
+      <c r="O213" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p988539/apartments-at-1622-west-37th-avenue-vancouver-bc-v6m-1m7</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1622 W 37th Ave Vancouver</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Shaughnessy Apartments</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1622 West 37th Avenue, Vancouver, BC V6M 1M7</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>bedroom</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1 Bedrooms</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>1 Bathroom</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>120 SQFT</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Central Heat, Furnished, Garden, Hardwood Floor, High Ceilings, In Unit Laundry, Walk In Closets</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>On Site Laundry</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>No pets</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>$1,200</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>49.2377765</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>-123.1428693</t>
+        </is>
+      </c>
+      <c r="O214" s="2" t="n">
+        <v>45411.60611932261</v>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>https://www.padmapper.com/buildings/p988539/apartments-at-1622-west-37th-avenue-vancouver-bc-v6m-1m7</t>
         </is>
       </c>
     </row>

--- a/data/raw_data/04-2024_raw_listings.xlsx
+++ b/data/raw_data/04-2024_raw_listings.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45411.78623892875</v>
+        <v>45411.7917418608</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>

--- a/data/raw_data/04-2024_raw_listings.xlsx
+++ b/data/raw_data/04-2024_raw_listings.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45411.7917418608</v>
+        <v>45412.76131387657</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
